--- a/normativa/Anexos/L05T02C03/L05T02C03A18B.xlsx
+++ b/normativa/Anexos/L05T02C03/L05T02C03A18B.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10800" windowHeight="8820"/>
+    <workbookView xWindow="-14" yWindow="-14" windowWidth="10800" windowHeight="8817"/>
   </bookViews>
   <sheets>
     <sheet name="EstratificaciónDepósitos" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">EstratificaciónDepósitos!$A$1:$AF$83</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>DE PERSONAS NATURALES</t>
-  </si>
-  <si>
-    <t>INSTITUCIONES DEL SECTOR PRIVADO</t>
   </si>
   <si>
     <t>RANGO</t>
@@ -153,11 +150,14 @@
   <si>
     <t>ANEXO 18.B:</t>
   </si>
+  <si>
+    <t>DE CLIENTES INSTITUCIONALES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,8 +587,38 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -629,52 +659,30 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -716,7 +724,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -751,7 +759,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -966,81 +974,81 @@
   <dimension ref="A2:AF83"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="80" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E9"/>
+      <selection activeCell="J8" sqref="J8:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="13.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.625" style="1" customWidth="1"/>
     <col min="2" max="5" width="7" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
     <col min="7" max="10" width="7" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.875" style="1" customWidth="1"/>
     <col min="12" max="15" width="7" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.875" style="1" customWidth="1"/>
     <col min="17" max="20" width="7" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.375" style="1" customWidth="1"/>
     <col min="22" max="25" width="7" style="1" customWidth="1"/>
     <col min="26" max="26" width="10" style="1" customWidth="1"/>
     <col min="27" max="30" width="7" style="1" customWidth="1"/>
-    <col min="31" max="31" width="8.42578125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="10.140625" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="3.7109375" style="1"/>
+    <col min="31" max="31" width="8.375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="10.125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="3.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-    </row>
-    <row r="3" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K3" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="34" t="s">
+    <row r="2" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+    </row>
+    <row r="3" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
@@ -1052,44 +1060,44 @@
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
     </row>
-    <row r="4" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M4" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
+    <row r="4" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:32" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="13.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="M5" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="M5" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -1097,187 +1105,187 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="7" spans="1:32" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:32" ht="14.3" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="46"/>
+    </row>
+    <row r="8" spans="1:32" ht="12.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="36" t="s">
+      <c r="C8" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="38"/>
-    </row>
-    <row r="8" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="49" t="s">
+      <c r="G8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="I8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="J8" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="K8" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="T8" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA8" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD8" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE8" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="S8" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="T8" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="U8" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="V8" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="W8" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="X8" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y8" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z8" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA8" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB8" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC8" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD8" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE8" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF8" s="45" t="s">
-        <v>37</v>
+      <c r="AF8" s="41" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="46"/>
-    </row>
-    <row r="10" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="42"/>
+    </row>
+    <row r="10" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
@@ -1345,9 +1353,9 @@
       <c r="AE11" s="9"/>
       <c r="AF11" s="11"/>
     </row>
-    <row r="12" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
@@ -1399,9 +1407,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -1453,9 +1461,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -1507,9 +1515,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
@@ -1561,9 +1569,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -1615,9 +1623,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
@@ -1669,9 +1677,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -1723,9 +1731,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -1777,9 +1785,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
@@ -1831,9 +1839,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1885,9 +1893,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1939,9 +1947,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1993,9 +2001,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -2047,9 +2055,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -2101,9 +2109,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="16">
         <f t="shared" ref="B26:P26" si="4">SUM(B12:B25)</f>
@@ -2215,9 +2223,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" ht="13.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
@@ -2285,9 +2293,9 @@
       <c r="AE28" s="9"/>
       <c r="AF28" s="14"/>
     </row>
-    <row r="29" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -2339,9 +2347,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2393,9 +2401,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -2447,9 +2455,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
@@ -2501,9 +2509,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
@@ -2555,9 +2563,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
@@ -2609,9 +2617,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="10"/>
@@ -2663,9 +2671,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="10"/>
@@ -2717,9 +2725,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="10"/>
@@ -2771,9 +2779,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="10"/>
@@ -2825,9 +2833,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
@@ -2879,9 +2887,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="10"/>
@@ -2933,9 +2941,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
@@ -2987,9 +2995,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="10"/>
@@ -3041,9 +3049,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43" s="16">
         <f t="shared" ref="B43:P43" si="10">SUM(B29:B42)</f>
@@ -3155,9 +3163,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" ht="13.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
@@ -3225,9 +3233,9 @@
       <c r="AE45" s="9"/>
       <c r="AF45" s="14"/>
     </row>
-    <row r="46" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -3279,9 +3287,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -3333,9 +3341,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -3387,9 +3395,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="10"/>
@@ -3441,9 +3449,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="10"/>
@@ -3495,9 +3503,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="10"/>
@@ -3549,9 +3557,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
@@ -3603,9 +3611,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="10"/>
@@ -3657,9 +3665,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="10"/>
@@ -3711,9 +3719,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
@@ -3765,9 +3773,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="10"/>
@@ -3819,9 +3827,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="10"/>
@@ -3873,9 +3881,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="10"/>
@@ -3927,9 +3935,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="10"/>
@@ -3981,9 +3989,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:32" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B60" s="16">
         <f>SUM(B46:B59)</f>
@@ -4129,9 +4137,9 @@
       <c r="AE61" s="19"/>
       <c r="AF61" s="19"/>
     </row>
-    <row r="62" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B62" s="21"/>
       <c r="C62" s="22"/>
@@ -4199,9 +4207,9 @@
       <c r="AE63" s="9"/>
       <c r="AF63" s="14"/>
     </row>
-    <row r="64" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -4253,9 +4261,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -4307,9 +4315,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -4361,9 +4369,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="10"/>
@@ -4415,9 +4423,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="10"/>
@@ -4469,9 +4477,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="10"/>
@@ -4523,9 +4531,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="10"/>
@@ -4577,9 +4585,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="10"/>
@@ -4631,9 +4639,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="10"/>
@@ -4685,9 +4693,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="10"/>
@@ -4739,9 +4747,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="10"/>
@@ -4793,9 +4801,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="10"/>
@@ -4847,9 +4855,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="10"/>
@@ -4901,9 +4909,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B77" s="26"/>
       <c r="C77" s="27"/>
@@ -4955,9 +4963,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:32" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B78" s="16">
         <f t="shared" ref="B78:P78" si="21">SUM(B64:B77)</f>
@@ -5103,9 +5111,9 @@
       <c r="AE79" s="32"/>
       <c r="AF79" s="32"/>
     </row>
-    <row r="80" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -5139,9 +5147,9 @@
       <c r="AE80" s="5"/>
       <c r="AF80" s="5"/>
     </row>
-    <row r="81" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -5175,9 +5183,9 @@
       <c r="AE81" s="5"/>
       <c r="AF81" s="5"/>
     </row>
-    <row r="82" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -5211,9 +5219,9 @@
       <c r="AE82" s="5"/>
       <c r="AF82" s="5"/>
     </row>
-    <row r="83" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -5249,6 +5257,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="L3:V3"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="A2:AF2"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="AA7:AF7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
     <mergeCell ref="B5:K5"/>
     <mergeCell ref="M4:U4"/>
     <mergeCell ref="B8:B9"/>
@@ -5265,40 +5300,14 @@
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="L3:V3"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="A2:AF2"/>
-    <mergeCell ref="V7:Z7"/>
-    <mergeCell ref="AA7:AF7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="S8:S9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="45" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="44" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
 RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
-    <oddFooter>&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
+    <oddFooter>&amp;L&amp;"Times New Roman,Normal"&amp;8&amp;K0000FFControl de versiones&amp;K01+000
+Circular ASFI/608/2019 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
 Título II
 Capítulo III
 Anexo 1.B
